--- a/scenari/BO_soli.xlsx
+++ b/scenari/BO_soli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forna\Repos\elezioni\scenari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626E2D0E-2A2B-4539-808E-3B93AF56CAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC36E76-7FFE-4C0D-BBA1-204FF1EEF419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="108">
   <si>
     <t>LISTA_FUTURA</t>
   </si>
@@ -438,8 +438,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25CD1B6C-5176-4636-A295-76158BC84BCA}" name="Tabella1" displayName="Tabella1" ref="A1:E104" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E104" xr:uid="{25CD1B6C-5176-4636-A295-76158BC84BCA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25CD1B6C-5176-4636-A295-76158BC84BCA}" name="Tabella1" displayName="Tabella1" ref="A1:E103" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E103" xr:uid="{25CD1B6C-5176-4636-A295-76158BC84BCA}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{44211973-D4BF-4489-936E-2C4681187FB6}" name="DATA" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{77E90632-A809-40F6-8A9A-D84A288AB0B0}" name="ELEZIONE"/>
@@ -884,10 +884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2436,11 +2436,14 @@
       <c r="B91" t="s">
         <v>72</v>
       </c>
+      <c r="C91" t="s">
+        <v>73</v>
+      </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2454,10 +2457,10 @@
         <v>73</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E92">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2468,13 +2471,13 @@
         <v>72</v>
       </c>
       <c r="C93" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E93">
-        <v>0.62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2485,10 +2488,10 @@
         <v>72</v>
       </c>
       <c r="C94" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D94" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -2502,10 +2505,10 @@
         <v>72</v>
       </c>
       <c r="C95" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -2519,10 +2522,10 @@
         <v>72</v>
       </c>
       <c r="C96" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D96" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -2536,10 +2539,10 @@
         <v>72</v>
       </c>
       <c r="C97" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D97" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -2553,10 +2556,10 @@
         <v>72</v>
       </c>
       <c r="C98" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2570,10 +2573,10 @@
         <v>72</v>
       </c>
       <c r="C99" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -2587,10 +2590,10 @@
         <v>72</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D100" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -2604,10 +2607,10 @@
         <v>72</v>
       </c>
       <c r="C101" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D101" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -2621,10 +2624,10 @@
         <v>72</v>
       </c>
       <c r="C102" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D102" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -2638,29 +2641,12 @@
         <v>72</v>
       </c>
       <c r="C103" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D103" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="E103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
-        <v>45612.958333333328</v>
-      </c>
-      <c r="B104" t="s">
-        <v>72</v>
-      </c>
-      <c r="C104" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" t="s">
-        <v>25</v>
-      </c>
-      <c r="E104">
         <v>1</v>
       </c>
     </row>
@@ -2676,7 +2662,7 @@
           <x14:formula1>
             <xm:f>liste_future!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D104</xm:sqref>
+          <xm:sqref>D2:D103</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/scenari/BO_soli.xlsx
+++ b/scenari/BO_soli.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forna\Repos\elezioni\scenari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC36E76-7FFE-4C0D-BBA1-204FF1EEF419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B3A422-E201-4C97-8274-19AF584442E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liste_future" sheetId="1" r:id="rId1"/>
-    <sheet name="flussi_previsti" sheetId="2" r:id="rId2"/>
+    <sheet name="coalizioni_future" sheetId="3" r:id="rId2"/>
+    <sheet name="flussi_previsti" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="109">
   <si>
     <t>LISTA_FUTURA</t>
   </si>
@@ -275,9 +276,6 @@
     <t>Partito Democratico</t>
   </si>
   <si>
-    <t>COALIZIONE</t>
-  </si>
-  <si>
     <t>COLORE</t>
   </si>
   <si>
@@ -345,6 +343,12 @@
   </si>
   <si>
     <t>#990000</t>
+  </si>
+  <si>
+    <t>CANDIDATO_SINDACO</t>
+  </si>
+  <si>
+    <t>DATA_DI_NASCITA</t>
   </si>
 </sst>
 </file>
@@ -741,13 +745,13 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -756,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -767,109 +771,109 @@
         <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -883,10 +887,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AA6233-26AB-41B3-9808-239B5231D8E1}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -927,7 +983,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -944,7 +1000,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -961,7 +1017,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -978,7 +1034,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -995,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1012,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1029,7 +1085,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1046,7 +1102,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1063,7 +1119,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1080,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1097,7 +1153,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1114,7 +1170,7 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1131,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1148,7 +1204,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1182,7 +1238,7 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1216,7 +1272,7 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1233,7 +1289,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1267,7 +1323,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1284,7 +1340,7 @@
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1301,7 +1357,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1318,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1335,7 +1391,7 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1352,7 +1408,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1369,7 +1425,7 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1386,7 +1442,7 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1403,7 +1459,7 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1420,7 +1476,7 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1437,7 +1493,7 @@
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1471,7 +1527,7 @@
         <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1488,7 +1544,7 @@
         <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1505,7 +1561,7 @@
         <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1573,7 +1629,7 @@
         <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1590,7 +1646,7 @@
         <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1624,7 +1680,7 @@
         <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1641,7 +1697,7 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1658,7 +1714,7 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1675,7 +1731,7 @@
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1709,7 +1765,7 @@
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1726,7 +1782,7 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1760,7 +1816,7 @@
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1777,7 +1833,7 @@
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1811,7 +1867,7 @@
         <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1828,7 +1884,7 @@
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1845,7 +1901,7 @@
         <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1879,7 +1935,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1896,7 +1952,7 @@
         <v>51</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E59">
         <v>0.38</v>
@@ -1913,7 +1969,7 @@
         <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E60">
         <v>0.62</v>
@@ -1930,7 +1986,7 @@
         <v>52</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1947,7 +2003,7 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1964,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1981,7 +2037,7 @@
         <v>53</v>
       </c>
       <c r="D64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2032,7 +2088,7 @@
         <v>56</v>
       </c>
       <c r="D67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2049,7 +2105,7 @@
         <v>57</v>
       </c>
       <c r="D68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2066,7 +2122,7 @@
         <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2083,7 +2139,7 @@
         <v>58</v>
       </c>
       <c r="D70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2100,7 +2156,7 @@
         <v>59</v>
       </c>
       <c r="D71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2151,7 +2207,7 @@
         <v>62</v>
       </c>
       <c r="D74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2168,7 +2224,7 @@
         <v>63</v>
       </c>
       <c r="D75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -2202,7 +2258,7 @@
         <v>51</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E77">
         <v>0.38</v>
@@ -2219,7 +2275,7 @@
         <v>51</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E78">
         <v>0.62</v>
@@ -2253,7 +2309,7 @@
         <v>66</v>
       </c>
       <c r="D80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -2270,7 +2326,7 @@
         <v>67</v>
       </c>
       <c r="D81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2287,7 +2343,7 @@
         <v>31</v>
       </c>
       <c r="D82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2304,7 +2360,7 @@
         <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -2338,7 +2394,7 @@
         <v>17</v>
       </c>
       <c r="D85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -2355,7 +2411,7 @@
         <v>69</v>
       </c>
       <c r="D86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -2389,7 +2445,7 @@
         <v>70</v>
       </c>
       <c r="D88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -2440,7 +2496,7 @@
         <v>73</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E91">
         <v>0.38</v>
@@ -2457,7 +2513,7 @@
         <v>73</v>
       </c>
       <c r="D92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E92">
         <v>0.62</v>
@@ -2474,7 +2530,7 @@
         <v>74</v>
       </c>
       <c r="D93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -2491,7 +2547,7 @@
         <v>75</v>
       </c>
       <c r="D94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -2508,7 +2564,7 @@
         <v>76</v>
       </c>
       <c r="D95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -2525,7 +2581,7 @@
         <v>77</v>
       </c>
       <c r="D96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -2559,7 +2615,7 @@
         <v>79</v>
       </c>
       <c r="D98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2576,7 +2632,7 @@
         <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -2610,7 +2666,7 @@
         <v>81</v>
       </c>
       <c r="D101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -2627,7 +2683,7 @@
         <v>82</v>
       </c>
       <c r="D102" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E102">
         <v>1</v>

--- a/scenari/BO_soli.xlsx
+++ b/scenari/BO_soli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forna\Repos\elezioni\scenari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B3A422-E201-4C97-8274-19AF584442E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B63DE9B-4731-4871-A916-DFFEF28E1BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liste_future" sheetId="1" r:id="rId1"/>
@@ -890,7 +890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AA6233-26AB-41B3-9808-239B5231D8E1}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2105,7 +2105,7 @@
         <v>57</v>
       </c>
       <c r="D68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2156,7 +2156,7 @@
         <v>59</v>
       </c>
       <c r="D71" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E71">
         <v>1</v>
